--- a/future_shortage.xlsx
+++ b/future_shortage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://006gc-my.sharepoint.com/personal/jacob_loree_fin_gc_ca/Documents/Documents/Green Jobs/skill similarity and green shock/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{DDAC2120-99D4-4ED1-A930-A1FEF54FDC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{971F6519-6318-4D0A-B54D-8F6039010C24}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{DDAC2120-99D4-4ED1-A930-A1FEF54FDC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0914EF16-DC65-402E-B5A4-D242E076434B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{372B88F5-C751-4FAE-A413-7AEEAF623F83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{372B88F5-C751-4FAE-A413-7AEEAF623F83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>magnitude</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>short</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>bal</t>
+  </si>
+  <si>
+    <t>noc</t>
   </si>
 </sst>
 </file>
@@ -428,14 +428,14 @@
   <dimension ref="A1:C485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -449,7 +449,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>400</v>
@@ -460,7 +460,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>600</v>
@@ -471,7 +471,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2100</v>
@@ -482,7 +482,7 @@
         <v>10010</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>4600</v>
@@ -493,7 +493,7 @@
         <v>10011</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>2500</v>
@@ -504,7 +504,7 @@
         <v>10012</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -515,7 +515,7 @@
         <v>10019</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>400</v>
@@ -526,7 +526,7 @@
         <v>10020</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>1700</v>
@@ -537,7 +537,7 @@
         <v>10021</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>3100</v>
@@ -548,7 +548,7 @@
         <v>10022</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>800</v>
@@ -559,7 +559,7 @@
         <v>10029</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>400</v>
@@ -570,7 +570,7 @@
         <v>10030</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -581,7 +581,7 @@
         <v>11100</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>35700</v>
@@ -592,7 +592,7 @@
         <v>11101</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>5300</v>
@@ -603,7 +603,7 @@
         <v>11102</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>12100</v>
@@ -614,7 +614,7 @@
         <v>11103</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>100</v>
@@ -625,7 +625,7 @@
         <v>11109</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>3400</v>
@@ -636,7 +636,7 @@
         <v>11200</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>14600</v>
@@ -647,7 +647,7 @@
         <v>11201</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>12700</v>
@@ -658,7 +658,7 @@
         <v>12010</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>300</v>
@@ -669,7 +669,7 @@
         <v>12011</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>500</v>
@@ -680,7 +680,7 @@
         <v>12012</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>400</v>
@@ -691,7 +691,7 @@
         <v>12013</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>600</v>
@@ -702,7 +702,7 @@
         <v>12100</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>500</v>
@@ -713,7 +713,7 @@
         <v>12101</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>2500</v>
@@ -724,7 +724,7 @@
         <v>12102</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>1500</v>
@@ -735,7 +735,7 @@
         <v>12103</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>700</v>
@@ -746,7 +746,7 @@
         <v>12104</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>500</v>
@@ -757,7 +757,7 @@
         <v>12110</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>200</v>
@@ -768,7 +768,7 @@
         <v>12111</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>12112</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>300</v>
@@ -790,7 +790,7 @@
         <v>12113</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>1200</v>
@@ -801,7 +801,7 @@
         <v>12200</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>1300</v>
@@ -812,7 +812,7 @@
         <v>12201</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>12202</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>400</v>
@@ -834,7 +834,7 @@
         <v>12203</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>100</v>
@@ -845,7 +845,7 @@
         <v>13100</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>10300</v>
@@ -856,7 +856,7 @@
         <v>13101</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>900</v>
@@ -867,7 +867,7 @@
         <v>13102</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>13110</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>900</v>
@@ -889,7 +889,7 @@
         <v>13111</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>1300</v>
@@ -900,7 +900,7 @@
         <v>13112</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>1200</v>
@@ -911,7 +911,7 @@
         <v>13200</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>700</v>
@@ -922,7 +922,7 @@
         <v>13201</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>100</v>
@@ -933,7 +933,7 @@
         <v>14100</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <v>2700</v>
@@ -944,7 +944,7 @@
         <v>14101</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>1000</v>
@@ -955,7 +955,7 @@
         <v>14102</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>14103</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>100</v>
@@ -977,7 +977,7 @@
         <v>14110</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <v>100</v>
@@ -988,7 +988,7 @@
         <v>14111</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>700</v>
@@ -999,7 +999,7 @@
         <v>14200</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>400</v>
@@ -1010,7 +1010,7 @@
         <v>14201</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <v>500</v>
@@ -1021,7 +1021,7 @@
         <v>14202</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>14300</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>200</v>
@@ -1043,7 +1043,7 @@
         <v>14301</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56">
         <v>1000</v>
@@ -1054,7 +1054,7 @@
         <v>14400</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57">
         <v>1100</v>
@@ -1065,7 +1065,7 @@
         <v>14401</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>800</v>
@@ -1076,7 +1076,7 @@
         <v>14402</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>100</v>
@@ -1087,7 +1087,7 @@
         <v>14403</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>200</v>
@@ -1098,7 +1098,7 @@
         <v>14404</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>300</v>
@@ -1109,7 +1109,7 @@
         <v>14405</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>20010</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>400</v>
@@ -1131,7 +1131,7 @@
         <v>20011</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>300</v>
@@ -1142,7 +1142,7 @@
         <v>20012</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>12500</v>
@@ -1153,7 +1153,7 @@
         <v>21101</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <v>300</v>
@@ -1164,7 +1164,7 @@
         <v>21102</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>300</v>
@@ -1175,7 +1175,7 @@
         <v>21109</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>100</v>
@@ -1186,7 +1186,7 @@
         <v>21110</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>21111</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70">
         <v>200</v>
@@ -1208,7 +1208,7 @@
         <v>21112</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>21120</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72">
         <v>300</v>
@@ -1230,7 +1230,7 @@
         <v>21200</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73">
         <v>600</v>
@@ -1241,7 +1241,7 @@
         <v>21201</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>21202</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>2100</v>
@@ -1263,7 +1263,7 @@
         <v>21203</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76">
         <v>300</v>
@@ -1274,7 +1274,7 @@
         <v>21210</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77">
         <v>1100</v>
@@ -1285,7 +1285,7 @@
         <v>21211</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78">
         <v>2000</v>
@@ -1296,7 +1296,7 @@
         <v>21220</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79">
         <v>2800</v>
@@ -1307,7 +1307,7 @@
         <v>21221</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80">
         <v>1500</v>
@@ -1318,7 +1318,7 @@
         <v>21222</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81">
         <v>33800</v>
@@ -1329,7 +1329,7 @@
         <v>21223</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82">
         <v>4000</v>
@@ -1340,7 +1340,7 @@
         <v>21230</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83">
         <v>1600</v>
@@ -1351,7 +1351,7 @@
         <v>21231</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>13600</v>
@@ -1362,7 +1362,7 @@
         <v>21232</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85">
         <v>22300</v>
@@ -1373,7 +1373,7 @@
         <v>21233</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86">
         <v>200</v>
@@ -1384,7 +1384,7 @@
         <v>21234</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <v>300</v>
@@ -1395,7 +1395,7 @@
         <v>21300</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <v>4500</v>
@@ -1406,7 +1406,7 @@
         <v>21301</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89">
         <v>2000</v>
@@ -1417,7 +1417,7 @@
         <v>21310</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90">
         <v>1200</v>
@@ -1428,7 +1428,7 @@
         <v>21311</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91">
         <v>1100</v>
@@ -1439,7 +1439,7 @@
         <v>21320</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C92">
         <v>600</v>
@@ -1450,7 +1450,7 @@
         <v>21321</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93">
         <v>200</v>
@@ -1461,7 +1461,7 @@
         <v>21330</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94">
         <v>900</v>
@@ -1472,7 +1472,7 @@
         <v>21331</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95">
         <v>600</v>
@@ -1483,7 +1483,7 @@
         <v>21332</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96">
         <v>900</v>
@@ -1494,7 +1494,7 @@
         <v>21390</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97">
         <v>200</v>
@@ -1505,7 +1505,7 @@
         <v>21399</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98">
         <v>5000</v>
@@ -1516,7 +1516,7 @@
         <v>22100</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99">
         <v>1600</v>
@@ -1527,7 +1527,7 @@
         <v>22101</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100">
         <v>900</v>
@@ -1538,7 +1538,7 @@
         <v>22110</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101">
         <v>200</v>
@@ -1549,7 +1549,7 @@
         <v>22111</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C102">
         <v>200</v>
@@ -1560,7 +1560,7 @@
         <v>22112</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103">
         <v>400</v>
@@ -1571,7 +1571,7 @@
         <v>22113</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104">
         <v>100</v>
@@ -1582,7 +1582,7 @@
         <v>22114</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105">
         <v>400</v>
@@ -1593,7 +1593,7 @@
         <v>22210</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106">
         <v>300</v>
@@ -1604,7 +1604,7 @@
         <v>22211</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107">
         <v>200</v>
@@ -1615,7 +1615,7 @@
         <v>22212</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108">
         <v>2900</v>
@@ -1626,7 +1626,7 @@
         <v>22213</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C109">
         <v>2300</v>
@@ -1637,7 +1637,7 @@
         <v>22214</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C110">
         <v>2600</v>
@@ -1648,7 +1648,7 @@
         <v>22220</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111">
         <v>400</v>
@@ -1659,7 +1659,7 @@
         <v>22221</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112">
         <v>100</v>
@@ -1670,7 +1670,7 @@
         <v>22222</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113">
         <v>8200</v>
@@ -1681,7 +1681,7 @@
         <v>22230</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114">
         <v>200</v>
@@ -1692,7 +1692,7 @@
         <v>22231</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115">
         <v>300</v>
@@ -1703,7 +1703,7 @@
         <v>22232</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>22233</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117">
         <v>200</v>
@@ -1725,7 +1725,7 @@
         <v>22300</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C118">
         <v>800</v>
@@ -1736,7 +1736,7 @@
         <v>22301</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C119">
         <v>700</v>
@@ -1747,7 +1747,7 @@
         <v>22302</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120">
         <v>400</v>
@@ -1758,7 +1758,7 @@
         <v>22303</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C121">
         <v>300</v>
@@ -1769,7 +1769,7 @@
         <v>22310</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C122">
         <v>100</v>
@@ -1780,7 +1780,7 @@
         <v>22311</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123">
         <v>300</v>
@@ -1791,7 +1791,7 @@
         <v>22312</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124">
         <v>300</v>
@@ -1802,7 +1802,7 @@
         <v>22313</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C125">
         <v>500</v>
@@ -1813,7 +1813,7 @@
         <v>30010</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C126">
         <v>600</v>
@@ -1824,7 +1824,7 @@
         <v>31100</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127">
         <v>4300</v>
@@ -1835,7 +1835,7 @@
         <v>31101</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128">
         <v>500</v>
@@ -1846,7 +1846,7 @@
         <v>31102</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129">
         <v>21900</v>
@@ -1857,7 +1857,7 @@
         <v>31103</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C130">
         <v>1300</v>
@@ -1868,7 +1868,7 @@
         <v>31110</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131">
         <v>6500</v>
@@ -1879,7 +1879,7 @@
         <v>31111</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132">
         <v>100</v>
@@ -1890,7 +1890,7 @@
         <v>31112</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C133">
         <v>2200</v>
@@ -1901,7 +1901,7 @@
         <v>31120</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134">
         <v>1300</v>
@@ -1912,7 +1912,7 @@
         <v>31121</v>
       </c>
       <c r="B135" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C135">
         <v>100</v>
@@ -1923,7 +1923,7 @@
         <v>31200</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C136">
         <v>600</v>
@@ -1934,7 +1934,7 @@
         <v>31201</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137">
         <v>1200</v>
@@ -1945,7 +1945,7 @@
         <v>31202</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C138">
         <v>1300</v>
@@ -1956,7 +1956,7 @@
         <v>31203</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C139">
         <v>400</v>
@@ -1967,7 +1967,7 @@
         <v>31204</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>31209</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141">
         <v>300</v>
@@ -1989,7 +1989,7 @@
         <v>31300</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142">
         <v>800</v>
@@ -2000,7 +2000,7 @@
         <v>31301</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143">
         <v>20300</v>
@@ -2011,7 +2011,7 @@
         <v>31302</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C144">
         <v>300</v>
@@ -2022,7 +2022,7 @@
         <v>31303</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>32100</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146">
         <v>100</v>
@@ -2044,7 +2044,7 @@
         <v>32101</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C147">
         <v>100</v>
@@ -2055,7 +2055,7 @@
         <v>32102</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C148">
         <v>500</v>
@@ -2066,7 +2066,7 @@
         <v>32103</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C149">
         <v>1200</v>
@@ -2077,7 +2077,7 @@
         <v>32104</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C150">
         <v>3700</v>
@@ -2088,7 +2088,7 @@
         <v>32109</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C151">
         <v>700</v>
@@ -2099,7 +2099,7 @@
         <v>32110</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         <v>32111</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153">
         <v>300</v>
@@ -2121,7 +2121,7 @@
         <v>32112</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C154">
         <v>700</v>
@@ -2132,7 +2132,7 @@
         <v>32120</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155">
         <v>200</v>
@@ -2143,7 +2143,7 @@
         <v>32121</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>32122</v>
       </c>
       <c r="B157" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C157">
         <v>300</v>
@@ -2165,7 +2165,7 @@
         <v>32123</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C158">
         <v>1000</v>
@@ -2176,7 +2176,7 @@
         <v>32124</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>32129</v>
       </c>
       <c r="B160" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C160">
         <v>200</v>
@@ -2198,7 +2198,7 @@
         <v>32200</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C161">
         <v>900</v>
@@ -2209,7 +2209,7 @@
         <v>32201</v>
       </c>
       <c r="B162" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C162">
         <v>600</v>
@@ -2220,7 +2220,7 @@
         <v>32209</v>
       </c>
       <c r="B163" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163">
         <v>900</v>
@@ -2231,7 +2231,7 @@
         <v>33100</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C164">
         <v>100</v>
@@ -2242,7 +2242,7 @@
         <v>33101</v>
       </c>
       <c r="B165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C165">
         <v>100</v>
@@ -2253,7 +2253,7 @@
         <v>33102</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166">
         <v>4800</v>
@@ -2264,7 +2264,7 @@
         <v>33103</v>
       </c>
       <c r="B167" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167">
         <v>800</v>
@@ -2275,7 +2275,7 @@
         <v>33109</v>
       </c>
       <c r="B168" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168">
         <v>400</v>
@@ -2286,7 +2286,7 @@
         <v>40010</v>
       </c>
       <c r="B169" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169">
         <v>200</v>
@@ -2297,7 +2297,7 @@
         <v>40011</v>
       </c>
       <c r="B170" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170">
         <v>400</v>
@@ -2308,7 +2308,7 @@
         <v>40019</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C171">
         <v>4700</v>
@@ -2319,7 +2319,7 @@
         <v>40020</v>
       </c>
       <c r="B172" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C172">
         <v>100</v>
@@ -2330,7 +2330,7 @@
         <v>40021</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173">
         <v>300</v>
@@ -2341,7 +2341,7 @@
         <v>40030</v>
       </c>
       <c r="B174" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C174">
         <v>6800</v>
@@ -2352,7 +2352,7 @@
         <v>40041</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C175">
         <v>300</v>
@@ -2363,7 +2363,7 @@
         <v>41100</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>41101</v>
       </c>
       <c r="B177" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C177">
         <v>13600</v>
@@ -2385,7 +2385,7 @@
         <v>41200</v>
       </c>
       <c r="B178" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C178">
         <v>7100</v>
@@ -2396,7 +2396,7 @@
         <v>41201</v>
       </c>
       <c r="B179" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C179">
         <v>8200</v>
@@ -2407,7 +2407,7 @@
         <v>41210</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C180">
         <v>15400</v>
@@ -2418,7 +2418,7 @@
         <v>41220</v>
       </c>
       <c r="B181" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181">
         <v>4800</v>
@@ -2429,7 +2429,7 @@
         <v>41221</v>
       </c>
       <c r="B182" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C182">
         <v>7200</v>
@@ -2440,7 +2440,7 @@
         <v>41300</v>
       </c>
       <c r="B183" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C183">
         <v>300</v>
@@ -2451,7 +2451,7 @@
         <v>41301</v>
       </c>
       <c r="B184" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C184">
         <v>500</v>
@@ -2462,7 +2462,7 @@
         <v>41302</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>41310</v>
       </c>
       <c r="B186" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C186">
         <v>100</v>
@@ -2484,7 +2484,7 @@
         <v>41311</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C187">
         <v>200</v>
@@ -2495,7 +2495,7 @@
         <v>41320</v>
       </c>
       <c r="B188" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C188">
         <v>300</v>
@@ -2506,7 +2506,7 @@
         <v>41321</v>
       </c>
       <c r="B189" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C189">
         <v>100</v>
@@ -2517,7 +2517,7 @@
         <v>41400</v>
       </c>
       <c r="B190" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C190">
         <v>200</v>
@@ -2528,7 +2528,7 @@
         <v>41401</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>41402</v>
       </c>
       <c r="B192" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C192">
         <v>600</v>
@@ -2550,7 +2550,7 @@
         <v>41403</v>
       </c>
       <c r="B193" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C193">
         <v>300</v>
@@ -2561,7 +2561,7 @@
         <v>41404</v>
       </c>
       <c r="B194" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C194">
         <v>200</v>
@@ -2572,7 +2572,7 @@
         <v>41405</v>
       </c>
       <c r="B195" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C195">
         <v>400</v>
@@ -2583,7 +2583,7 @@
         <v>41406</v>
       </c>
       <c r="B196" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196">
         <v>100</v>
@@ -2594,7 +2594,7 @@
         <v>41407</v>
       </c>
       <c r="B197" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C197">
         <v>900</v>
@@ -2605,7 +2605,7 @@
         <v>41409</v>
       </c>
       <c r="B198" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C198">
         <v>300</v>
@@ -2616,7 +2616,7 @@
         <v>42100</v>
       </c>
       <c r="B199" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C199">
         <v>300</v>
@@ -2627,7 +2627,7 @@
         <v>42101</v>
       </c>
       <c r="B200" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200">
         <v>1600</v>
@@ -2638,7 +2638,7 @@
         <v>42200</v>
       </c>
       <c r="B201" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201">
         <v>400</v>
@@ -2649,7 +2649,7 @@
         <v>42201</v>
       </c>
       <c r="B202" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202">
         <v>2000</v>
@@ -2660,7 +2660,7 @@
         <v>42202</v>
       </c>
       <c r="B203" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C203">
         <v>2500</v>
@@ -2671,7 +2671,7 @@
         <v>42203</v>
       </c>
       <c r="B204" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C204">
         <v>400</v>
@@ -2682,7 +2682,7 @@
         <v>42204</v>
       </c>
       <c r="B205" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C205">
         <v>300</v>
@@ -2693,7 +2693,7 @@
         <v>43100</v>
       </c>
       <c r="B206" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C206">
         <v>2200</v>
@@ -2704,7 +2704,7 @@
         <v>43109</v>
       </c>
       <c r="B207" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207">
         <v>600</v>
@@ -2715,7 +2715,7 @@
         <v>43200</v>
       </c>
       <c r="B208" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C208">
         <v>400</v>
@@ -2726,7 +2726,7 @@
         <v>43201</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>43202</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C210">
         <v>500</v>
@@ -2748,7 +2748,7 @@
         <v>43203</v>
       </c>
       <c r="B211" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C211">
         <v>100</v>
@@ -2759,7 +2759,7 @@
         <v>44100</v>
       </c>
       <c r="B212" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C212">
         <v>200</v>
@@ -2770,7 +2770,7 @@
         <v>44101</v>
       </c>
       <c r="B213" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C213">
         <v>1600</v>
@@ -2781,7 +2781,7 @@
         <v>45100</v>
       </c>
       <c r="B214" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C214">
         <v>200</v>
@@ -2792,7 +2792,7 @@
         <v>50010</v>
       </c>
       <c r="B215" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C215">
         <v>400</v>
@@ -2803,7 +2803,7 @@
         <v>50011</v>
       </c>
       <c r="B216" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C216">
         <v>500</v>
@@ -2814,7 +2814,7 @@
         <v>50012</v>
       </c>
       <c r="B217" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C217">
         <v>400</v>
@@ -2825,7 +2825,7 @@
         <v>51100</v>
       </c>
       <c r="B218" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C218">
         <v>700</v>
@@ -2836,7 +2836,7 @@
         <v>51101</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C219">
         <v>100</v>
@@ -2847,7 +2847,7 @@
         <v>51110</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C220">
         <v>500</v>
@@ -2858,7 +2858,7 @@
         <v>51111</v>
       </c>
       <c r="B221" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C221">
         <v>200</v>
@@ -2869,7 +2869,7 @@
         <v>51112</v>
       </c>
       <c r="B222" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C222">
         <v>200</v>
@@ -2880,7 +2880,7 @@
         <v>51113</v>
       </c>
       <c r="B223" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C223">
         <v>700</v>
@@ -2891,7 +2891,7 @@
         <v>51114</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C224">
         <v>300</v>
@@ -2902,7 +2902,7 @@
         <v>51120</v>
       </c>
       <c r="B225" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C225">
         <v>200</v>
@@ -2913,7 +2913,7 @@
         <v>51121</v>
       </c>
       <c r="B226" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C226">
         <v>100</v>
@@ -2924,7 +2924,7 @@
         <v>51122</v>
       </c>
       <c r="B227" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C227">
         <v>1000</v>
@@ -2935,7 +2935,7 @@
         <v>52100</v>
       </c>
       <c r="B228" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C228">
         <v>200</v>
@@ -2946,7 +2946,7 @@
         <v>52110</v>
       </c>
       <c r="B229" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C229">
         <v>700</v>
@@ -2957,7 +2957,7 @@
         <v>52111</v>
       </c>
       <c r="B230" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C230">
         <v>100</v>
@@ -2968,7 +2968,7 @@
         <v>52112</v>
       </c>
       <c r="B231" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C231">
         <v>800</v>
@@ -2979,7 +2979,7 @@
         <v>52113</v>
       </c>
       <c r="B232" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C232">
         <v>100</v>
@@ -2990,7 +2990,7 @@
         <v>52114</v>
       </c>
       <c r="B233" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C233">
         <v>700</v>
@@ -3001,7 +3001,7 @@
         <v>52119</v>
       </c>
       <c r="B234" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C234">
         <v>1300</v>
@@ -3012,7 +3012,7 @@
         <v>52120</v>
       </c>
       <c r="B235" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C235">
         <v>15300</v>
@@ -3023,7 +3023,7 @@
         <v>52121</v>
       </c>
       <c r="B236" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C236">
         <v>2100</v>
@@ -3034,7 +3034,7 @@
         <v>53100</v>
       </c>
       <c r="B237" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C237">
         <v>1800</v>
@@ -3045,7 +3045,7 @@
         <v>53110</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>53111</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -3067,7 +3067,7 @@
         <v>53120</v>
       </c>
       <c r="B240" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C240">
         <v>600</v>
@@ -3078,7 +3078,7 @@
         <v>53121</v>
       </c>
       <c r="B241" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C241">
         <v>100</v>
@@ -3089,7 +3089,7 @@
         <v>53122</v>
       </c>
       <c r="B242" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C242">
         <v>400</v>
@@ -3100,7 +3100,7 @@
         <v>53123</v>
       </c>
       <c r="B243" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C243">
         <v>100</v>
@@ -3111,7 +3111,7 @@
         <v>53124</v>
       </c>
       <c r="B244" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C244">
         <v>500</v>
@@ -3122,7 +3122,7 @@
         <v>53200</v>
       </c>
       <c r="B245" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C245">
         <v>1600</v>
@@ -3133,7 +3133,7 @@
         <v>53201</v>
       </c>
       <c r="B246" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C246">
         <v>800</v>
@@ -3144,7 +3144,7 @@
         <v>53202</v>
       </c>
       <c r="B247" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C247">
         <v>800</v>
@@ -3155,7 +3155,7 @@
         <v>54100</v>
       </c>
       <c r="B248" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C248">
         <v>6000</v>
@@ -3166,7 +3166,7 @@
         <v>60010</v>
       </c>
       <c r="B249" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C249">
         <v>600</v>
@@ -3177,7 +3177,7 @@
         <v>60020</v>
       </c>
       <c r="B250" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C250">
         <v>8000</v>
@@ -3188,7 +3188,7 @@
         <v>60030</v>
       </c>
       <c r="B251" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C251">
         <v>900</v>
@@ -3199,7 +3199,7 @@
         <v>60031</v>
       </c>
       <c r="B252" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C252">
         <v>1000</v>
@@ -3210,7 +3210,7 @@
         <v>60040</v>
       </c>
       <c r="B253" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C253">
         <v>200</v>
@@ -3221,7 +3221,7 @@
         <v>62010</v>
       </c>
       <c r="B254" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C254">
         <v>500</v>
@@ -3232,7 +3232,7 @@
         <v>62020</v>
       </c>
       <c r="B255" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C255">
         <v>500</v>
@@ -3243,7 +3243,7 @@
         <v>62021</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -3254,7 +3254,7 @@
         <v>62022</v>
       </c>
       <c r="B257" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C257">
         <v>1300</v>
@@ -3265,7 +3265,7 @@
         <v>62023</v>
       </c>
       <c r="B258" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C258">
         <v>300</v>
@@ -3276,7 +3276,7 @@
         <v>62024</v>
       </c>
       <c r="B259" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C259">
         <v>1000</v>
@@ -3287,7 +3287,7 @@
         <v>62029</v>
       </c>
       <c r="B260" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C260">
         <v>1400</v>
@@ -3298,7 +3298,7 @@
         <v>62100</v>
       </c>
       <c r="B261" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C261">
         <v>1400</v>
@@ -3309,7 +3309,7 @@
         <v>62101</v>
       </c>
       <c r="B262" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C262">
         <v>100</v>
@@ -3320,7 +3320,7 @@
         <v>62200</v>
       </c>
       <c r="B263" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C263">
         <v>1100</v>
@@ -3331,7 +3331,7 @@
         <v>62201</v>
       </c>
       <c r="B264" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C264">
         <v>1300</v>
@@ -3342,7 +3342,7 @@
         <v>62202</v>
       </c>
       <c r="B265" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>63100</v>
       </c>
       <c r="B266" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C266">
         <v>200</v>
@@ -3364,7 +3364,7 @@
         <v>63101</v>
       </c>
       <c r="B267" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C267">
         <v>1400</v>
@@ -3375,7 +3375,7 @@
         <v>63102</v>
       </c>
       <c r="B268" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C268">
         <v>200</v>
@@ -3386,7 +3386,7 @@
         <v>63200</v>
       </c>
       <c r="B269" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C269">
         <v>800</v>
@@ -3397,7 +3397,7 @@
         <v>63201</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>63202</v>
       </c>
       <c r="B271" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C271">
         <v>500</v>
@@ -3419,7 +3419,7 @@
         <v>63210</v>
       </c>
       <c r="B272" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C272">
         <v>300</v>
@@ -3430,7 +3430,7 @@
         <v>63211</v>
       </c>
       <c r="B273" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C273">
         <v>800</v>
@@ -3441,7 +3441,7 @@
         <v>63221</v>
       </c>
       <c r="B274" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C274">
         <v>400</v>
@@ -3452,7 +3452,7 @@
         <v>64100</v>
       </c>
       <c r="B275" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C275">
         <v>13900</v>
@@ -3463,7 +3463,7 @@
         <v>64101</v>
       </c>
       <c r="B276" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C276">
         <v>1600</v>
@@ -3474,7 +3474,7 @@
         <v>64200</v>
       </c>
       <c r="B277" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>64201</v>
       </c>
       <c r="B278" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>64300</v>
       </c>
       <c r="B279" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C279">
         <v>100</v>
@@ -3507,7 +3507,7 @@
         <v>64301</v>
       </c>
       <c r="B280" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C280">
         <v>200</v>
@@ -3518,7 +3518,7 @@
         <v>64310</v>
       </c>
       <c r="B281" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C281">
         <v>100</v>
@@ -3529,7 +3529,7 @@
         <v>64311</v>
       </c>
       <c r="B282" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C282">
         <v>500</v>
@@ -3540,7 +3540,7 @@
         <v>64312</v>
       </c>
       <c r="B283" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C283">
         <v>200</v>
@@ -3551,7 +3551,7 @@
         <v>64313</v>
       </c>
       <c r="B284" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C284">
         <v>900</v>
@@ -3562,7 +3562,7 @@
         <v>64314</v>
       </c>
       <c r="B285" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C285">
         <v>700</v>
@@ -3573,7 +3573,7 @@
         <v>64320</v>
       </c>
       <c r="B286" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C286">
         <v>200</v>
@@ -3584,7 +3584,7 @@
         <v>64321</v>
       </c>
       <c r="B287" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C287">
         <v>200</v>
@@ -3595,7 +3595,7 @@
         <v>64322</v>
       </c>
       <c r="B288" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -3606,7 +3606,7 @@
         <v>64400</v>
       </c>
       <c r="B289" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C289">
         <v>1000</v>
@@ -3617,7 +3617,7 @@
         <v>64401</v>
       </c>
       <c r="B290" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C290">
         <v>300</v>
@@ -3628,7 +3628,7 @@
         <v>64409</v>
       </c>
       <c r="B291" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C291">
         <v>2600</v>
@@ -3639,7 +3639,7 @@
         <v>64410</v>
       </c>
       <c r="B292" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C292">
         <v>800</v>
@@ -3650,7 +3650,7 @@
         <v>65100</v>
       </c>
       <c r="B293" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C293">
         <v>2700</v>
@@ -3661,7 +3661,7 @@
         <v>65101</v>
       </c>
       <c r="B294" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C294">
         <v>500</v>
@@ -3672,7 +3672,7 @@
         <v>65102</v>
       </c>
       <c r="B295" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C295">
         <v>700</v>
@@ -3683,7 +3683,7 @@
         <v>65109</v>
       </c>
       <c r="B296" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C296">
         <v>600</v>
@@ -3694,7 +3694,7 @@
         <v>65200</v>
       </c>
       <c r="B297" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C297">
         <v>1200</v>
@@ -3705,7 +3705,7 @@
         <v>65201</v>
       </c>
       <c r="B298" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C298">
         <v>1400</v>
@@ -3716,7 +3716,7 @@
         <v>65202</v>
       </c>
       <c r="B299" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C299">
         <v>200</v>
@@ -3727,7 +3727,7 @@
         <v>65210</v>
       </c>
       <c r="B300" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C300">
         <v>600</v>
@@ -3738,7 +3738,7 @@
         <v>65211</v>
       </c>
       <c r="B301" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C301">
         <v>3300</v>
@@ -3749,7 +3749,7 @@
         <v>65220</v>
       </c>
       <c r="B302" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C302">
         <v>1400</v>
@@ -3760,7 +3760,7 @@
         <v>65229</v>
       </c>
       <c r="B303" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C303">
         <v>700</v>
@@ -3771,7 +3771,7 @@
         <v>65310</v>
       </c>
       <c r="B304" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C304">
         <v>2300</v>
@@ -3782,7 +3782,7 @@
         <v>65311</v>
       </c>
       <c r="B305" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C305">
         <v>100</v>
@@ -3793,7 +3793,7 @@
         <v>65312</v>
       </c>
       <c r="B306" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C306">
         <v>900</v>
@@ -3804,7 +3804,7 @@
         <v>65320</v>
       </c>
       <c r="B307" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C307">
         <v>1000</v>
@@ -3815,7 +3815,7 @@
         <v>65329</v>
       </c>
       <c r="B308" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C308">
         <v>400</v>
@@ -3826,7 +3826,7 @@
         <v>70010</v>
       </c>
       <c r="B309" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C309">
         <v>16600</v>
@@ -3837,7 +3837,7 @@
         <v>70011</v>
       </c>
       <c r="B310" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C310">
         <v>36400</v>
@@ -3848,7 +3848,7 @@
         <v>70012</v>
       </c>
       <c r="B311" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C311">
         <v>600</v>
@@ -3859,7 +3859,7 @@
         <v>70020</v>
       </c>
       <c r="B312" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C312">
         <v>1100</v>
@@ -3870,7 +3870,7 @@
         <v>70021</v>
       </c>
       <c r="B313" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C313">
         <v>200</v>
@@ -3881,7 +3881,7 @@
         <v>72010</v>
       </c>
       <c r="B314" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C314">
         <v>500</v>
@@ -3892,7 +3892,7 @@
         <v>72011</v>
       </c>
       <c r="B315" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C315">
         <v>300</v>
@@ -3903,7 +3903,7 @@
         <v>72012</v>
       </c>
       <c r="B316" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>72013</v>
       </c>
       <c r="B317" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C317">
         <v>1800</v>
@@ -3925,7 +3925,7 @@
         <v>72014</v>
       </c>
       <c r="B318" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C318">
         <v>2800</v>
@@ -3936,7 +3936,7 @@
         <v>72020</v>
       </c>
       <c r="B319" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C319">
         <v>500</v>
@@ -3947,7 +3947,7 @@
         <v>72021</v>
       </c>
       <c r="B320" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C320">
         <v>2000</v>
@@ -3958,7 +3958,7 @@
         <v>72022</v>
       </c>
       <c r="B321" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -3969,7 +3969,7 @@
         <v>72023</v>
       </c>
       <c r="B322" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C322">
         <v>200</v>
@@ -3980,7 +3980,7 @@
         <v>72024</v>
       </c>
       <c r="B323" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C323">
         <v>100</v>
@@ -3991,7 +3991,7 @@
         <v>72025</v>
       </c>
       <c r="B324" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C324">
         <v>200</v>
@@ -4002,7 +4002,7 @@
         <v>72100</v>
       </c>
       <c r="B325" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C325">
         <v>400</v>
@@ -4013,7 +4013,7 @@
         <v>72101</v>
       </c>
       <c r="B326" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C326">
         <v>200</v>
@@ -4024,7 +4024,7 @@
         <v>72102</v>
       </c>
       <c r="B327" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C327">
         <v>400</v>
@@ -4035,7 +4035,7 @@
         <v>72103</v>
       </c>
       <c r="B328" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>72104</v>
       </c>
       <c r="B329" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>72105</v>
       </c>
       <c r="B330" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C330">
         <v>1500</v>
@@ -4068,7 +4068,7 @@
         <v>72106</v>
       </c>
       <c r="B331" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C331">
         <v>800</v>
@@ -4079,7 +4079,7 @@
         <v>72200</v>
       </c>
       <c r="B332" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C332">
         <v>500</v>
@@ -4090,7 +4090,7 @@
         <v>72201</v>
       </c>
       <c r="B333" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C333">
         <v>500</v>
@@ -4101,7 +4101,7 @@
         <v>72202</v>
       </c>
       <c r="B334" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C334">
         <v>300</v>
@@ -4112,7 +4112,7 @@
         <v>72203</v>
       </c>
       <c r="B335" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C335">
         <v>400</v>
@@ -4123,7 +4123,7 @@
         <v>72204</v>
       </c>
       <c r="B336" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C336">
         <v>100</v>
@@ -4134,7 +4134,7 @@
         <v>72205</v>
       </c>
       <c r="B337" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C337">
         <v>300</v>
@@ -4145,7 +4145,7 @@
         <v>72300</v>
       </c>
       <c r="B338" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C338">
         <v>1100</v>
@@ -4156,7 +4156,7 @@
         <v>72301</v>
       </c>
       <c r="B339" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C339">
         <v>700</v>
@@ -4167,7 +4167,7 @@
         <v>72302</v>
       </c>
       <c r="B340" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C340">
         <v>300</v>
@@ -4178,7 +4178,7 @@
         <v>72310</v>
       </c>
       <c r="B341" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C341">
         <v>5600</v>
@@ -4189,7 +4189,7 @@
         <v>72311</v>
       </c>
       <c r="B342" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C342">
         <v>100</v>
@@ -4200,7 +4200,7 @@
         <v>72320</v>
       </c>
       <c r="B343" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C343">
         <v>100</v>
@@ -4211,7 +4211,7 @@
         <v>72321</v>
       </c>
       <c r="B344" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C344">
         <v>400</v>
@@ -4222,7 +4222,7 @@
         <v>72400</v>
       </c>
       <c r="B345" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C345">
         <v>200</v>
@@ -4233,7 +4233,7 @@
         <v>72401</v>
       </c>
       <c r="B346" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C346">
         <v>400</v>
@@ -4244,7 +4244,7 @@
         <v>72402</v>
       </c>
       <c r="B347" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C347">
         <v>200</v>
@@ -4255,7 +4255,7 @@
         <v>72403</v>
       </c>
       <c r="B348" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -4266,7 +4266,7 @@
         <v>72404</v>
       </c>
       <c r="B349" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C349">
         <v>300</v>
@@ -4277,7 +4277,7 @@
         <v>72406</v>
       </c>
       <c r="B350" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C350">
         <v>1100</v>
@@ -4288,7 +4288,7 @@
         <v>72410</v>
       </c>
       <c r="B351" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C351">
         <v>900</v>
@@ -4299,7 +4299,7 @@
         <v>72411</v>
       </c>
       <c r="B352" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C352">
         <v>1300</v>
@@ -4310,7 +4310,7 @@
         <v>72420</v>
       </c>
       <c r="B353" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C353">
         <v>200</v>
@@ -4321,7 +4321,7 @@
         <v>72421</v>
       </c>
       <c r="B354" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C354">
         <v>200</v>
@@ -4332,7 +4332,7 @@
         <v>72422</v>
       </c>
       <c r="B355" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C355">
         <v>800</v>
@@ -4343,7 +4343,7 @@
         <v>72423</v>
       </c>
       <c r="B356" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C356">
         <v>100</v>
@@ -4354,7 +4354,7 @@
         <v>72429</v>
       </c>
       <c r="B357" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C357">
         <v>600</v>
@@ -4365,7 +4365,7 @@
         <v>72500</v>
       </c>
       <c r="B358" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C358">
         <v>100</v>
@@ -4376,7 +4376,7 @@
         <v>72501</v>
       </c>
       <c r="B359" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C359">
         <v>400</v>
@@ -4387,7 +4387,7 @@
         <v>72600</v>
       </c>
       <c r="B360" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C360">
         <v>3500</v>
@@ -4398,7 +4398,7 @@
         <v>72601</v>
       </c>
       <c r="B361" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C361">
         <v>300</v>
@@ -4409,7 +4409,7 @@
         <v>72602</v>
       </c>
       <c r="B362" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C362">
         <v>600</v>
@@ -4420,7 +4420,7 @@
         <v>72603</v>
       </c>
       <c r="B363" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C363">
         <v>700</v>
@@ -4431,7 +4431,7 @@
         <v>72999</v>
       </c>
       <c r="B364" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -4442,7 +4442,7 @@
         <v>73100</v>
       </c>
       <c r="B365" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C365">
         <v>300</v>
@@ -4453,7 +4453,7 @@
         <v>73101</v>
       </c>
       <c r="B366" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C366">
         <v>700</v>
@@ -4464,7 +4464,7 @@
         <v>73102</v>
       </c>
       <c r="B367" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C367">
         <v>500</v>
@@ -4475,7 +4475,7 @@
         <v>73110</v>
       </c>
       <c r="B368" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C368">
         <v>500</v>
@@ -4486,7 +4486,7 @@
         <v>73111</v>
       </c>
       <c r="B369" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C369">
         <v>100</v>
@@ -4497,7 +4497,7 @@
         <v>73112</v>
       </c>
       <c r="B370" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C370">
         <v>400</v>
@@ -4508,7 +4508,7 @@
         <v>73113</v>
       </c>
       <c r="B371" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C371">
         <v>200</v>
@@ -4519,7 +4519,7 @@
         <v>73200</v>
       </c>
       <c r="B372" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C372">
         <v>2600</v>
@@ -4530,7 +4530,7 @@
         <v>73201</v>
       </c>
       <c r="B373" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C373">
         <v>1500</v>
@@ -4541,7 +4541,7 @@
         <v>73202</v>
       </c>
       <c r="B374" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C374">
         <v>100</v>
@@ -4552,7 +4552,7 @@
         <v>73209</v>
       </c>
       <c r="B375" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C375">
         <v>100</v>
@@ -4563,7 +4563,7 @@
         <v>73300</v>
       </c>
       <c r="B376" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C376">
         <v>9600</v>
@@ -4574,7 +4574,7 @@
         <v>73301</v>
       </c>
       <c r="B377" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C377">
         <v>2200</v>
@@ -4585,7 +4585,7 @@
         <v>73310</v>
       </c>
       <c r="B378" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C378">
         <v>600</v>
@@ -4596,7 +4596,7 @@
         <v>73311</v>
       </c>
       <c r="B379" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C379">
         <v>100</v>
@@ -4607,7 +4607,7 @@
         <v>73400</v>
       </c>
       <c r="B380" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C380">
         <v>1700</v>
@@ -4618,7 +4618,7 @@
         <v>73401</v>
       </c>
       <c r="B381" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C381">
         <v>700</v>
@@ -4629,7 +4629,7 @@
         <v>73402</v>
       </c>
       <c r="B382" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>74100</v>
       </c>
       <c r="B383" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C383">
         <v>100</v>
@@ -4651,7 +4651,7 @@
         <v>74101</v>
       </c>
       <c r="B384" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C384">
         <v>600</v>
@@ -4662,7 +4662,7 @@
         <v>74102</v>
       </c>
       <c r="B385" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C385">
         <v>100</v>
@@ -4673,7 +4673,7 @@
         <v>74200</v>
       </c>
       <c r="B386" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C386">
         <v>600</v>
@@ -4684,7 +4684,7 @@
         <v>74201</v>
       </c>
       <c r="B387" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C387">
         <v>1200</v>
@@ -4695,7 +4695,7 @@
         <v>74202</v>
       </c>
       <c r="B388" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C388">
         <v>300</v>
@@ -4706,7 +4706,7 @@
         <v>74203</v>
       </c>
       <c r="B389" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C389">
         <v>300</v>
@@ -4717,7 +4717,7 @@
         <v>74204</v>
       </c>
       <c r="B390" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C390">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>74205</v>
       </c>
       <c r="B391" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C391">
         <v>400</v>
@@ -4739,7 +4739,7 @@
         <v>75100</v>
       </c>
       <c r="B392" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C392">
         <v>200</v>
@@ -4750,7 +4750,7 @@
         <v>75101</v>
       </c>
       <c r="B393" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -4761,7 +4761,7 @@
         <v>75110</v>
       </c>
       <c r="B394" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C394">
         <v>3800</v>
@@ -4772,7 +4772,7 @@
         <v>75119</v>
       </c>
       <c r="B395" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C395">
         <v>500</v>
@@ -4783,7 +4783,7 @@
         <v>75200</v>
       </c>
       <c r="B396" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>75201</v>
       </c>
       <c r="B397" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C397">
         <v>1500</v>
@@ -4805,7 +4805,7 @@
         <v>75210</v>
       </c>
       <c r="B398" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C398">
         <v>400</v>
@@ -4816,7 +4816,7 @@
         <v>75211</v>
       </c>
       <c r="B399" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C399">
         <v>300</v>
@@ -4827,7 +4827,7 @@
         <v>75212</v>
       </c>
       <c r="B400" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C400">
         <v>1000</v>
@@ -4838,7 +4838,7 @@
         <v>80010</v>
       </c>
       <c r="B401" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C401">
         <v>2000</v>
@@ -4849,7 +4849,7 @@
         <v>80020</v>
       </c>
       <c r="B402" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C402">
         <v>18000</v>
@@ -4860,7 +4860,7 @@
         <v>80021</v>
       </c>
       <c r="B403" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C403">
         <v>100</v>
@@ -4871,7 +4871,7 @@
         <v>82010</v>
       </c>
       <c r="B404" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C404">
         <v>700</v>
@@ -4882,7 +4882,7 @@
         <v>82020</v>
       </c>
       <c r="B405" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C405">
         <v>300</v>
@@ -4893,7 +4893,7 @@
         <v>82021</v>
       </c>
       <c r="B406" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C406">
         <v>1100</v>
@@ -4904,7 +4904,7 @@
         <v>82030</v>
       </c>
       <c r="B407" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C407">
         <v>500</v>
@@ -4915,7 +4915,7 @@
         <v>82031</v>
       </c>
       <c r="B408" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C408">
         <v>900</v>
@@ -4926,7 +4926,7 @@
         <v>83100</v>
       </c>
       <c r="B409" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C409">
         <v>200</v>
@@ -4937,7 +4937,7 @@
         <v>83101</v>
       </c>
       <c r="B410" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C410">
         <v>500</v>
@@ -4948,7 +4948,7 @@
         <v>83110</v>
       </c>
       <c r="B411" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C411">
         <v>800</v>
@@ -4959,7 +4959,7 @@
         <v>83121</v>
       </c>
       <c r="B412" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C412">
         <v>1000</v>
@@ -4970,7 +4970,7 @@
         <v>84100</v>
       </c>
       <c r="B413" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C413">
         <v>200</v>
@@ -4981,7 +4981,7 @@
         <v>84101</v>
       </c>
       <c r="B414" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>84110</v>
       </c>
       <c r="B415" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C415">
         <v>500</v>
@@ -5003,7 +5003,7 @@
         <v>84111</v>
       </c>
       <c r="B416" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C416">
         <v>100</v>
@@ -5014,7 +5014,7 @@
         <v>84120</v>
       </c>
       <c r="B417" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C417">
         <v>2200</v>
@@ -5025,7 +5025,7 @@
         <v>84121</v>
       </c>
       <c r="B418" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C418">
         <v>100</v>
@@ -5036,7 +5036,7 @@
         <v>85100</v>
       </c>
       <c r="B419" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C419">
         <v>1400</v>
@@ -5047,7 +5047,7 @@
         <v>85101</v>
       </c>
       <c r="B420" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C420">
         <v>2200</v>
@@ -5058,7 +5058,7 @@
         <v>85102</v>
       </c>
       <c r="B421" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C421">
         <v>200</v>
@@ -5069,7 +5069,7 @@
         <v>85103</v>
       </c>
       <c r="B422" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C422">
         <v>1000</v>
@@ -5080,7 +5080,7 @@
         <v>85110</v>
       </c>
       <c r="B423" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C423">
         <v>100</v>
@@ -5091,7 +5091,7 @@
         <v>85111</v>
       </c>
       <c r="B424" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C424">
         <v>200</v>
@@ -5102,7 +5102,7 @@
         <v>85120</v>
       </c>
       <c r="B425" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C425">
         <v>100</v>
@@ -5113,7 +5113,7 @@
         <v>85121</v>
       </c>
       <c r="B426" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C426">
         <v>100</v>
@@ -5124,7 +5124,7 @@
         <v>90010</v>
       </c>
       <c r="B427" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C427">
         <v>10800</v>
@@ -5135,7 +5135,7 @@
         <v>90011</v>
       </c>
       <c r="B428" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>92010</v>
       </c>
       <c r="B429" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C429">
         <v>100</v>
@@ -5157,7 +5157,7 @@
         <v>92011</v>
       </c>
       <c r="B430" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -5168,7 +5168,7 @@
         <v>92012</v>
       </c>
       <c r="B431" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C431">
         <v>100</v>
@@ -5179,7 +5179,7 @@
         <v>92013</v>
       </c>
       <c r="B432" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C432">
         <v>600</v>
@@ -5190,7 +5190,7 @@
         <v>92014</v>
       </c>
       <c r="B433" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C433">
         <v>200</v>
@@ -5201,7 +5201,7 @@
         <v>92015</v>
       </c>
       <c r="B434" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C434">
         <v>400</v>
@@ -5212,7 +5212,7 @@
         <v>92020</v>
       </c>
       <c r="B435" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C435">
         <v>200</v>
@@ -5223,7 +5223,7 @@
         <v>92021</v>
       </c>
       <c r="B436" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C436">
         <v>500</v>
@@ -5234,7 +5234,7 @@
         <v>92022</v>
       </c>
       <c r="B437" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C437">
         <v>600</v>
@@ -5245,7 +5245,7 @@
         <v>92023</v>
       </c>
       <c r="B438" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C438">
         <v>1500</v>
@@ -5256,7 +5256,7 @@
         <v>92024</v>
       </c>
       <c r="B439" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C439">
         <v>1800</v>
@@ -5267,7 +5267,7 @@
         <v>92100</v>
       </c>
       <c r="B440" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C440">
         <v>400</v>
@@ -5278,7 +5278,7 @@
         <v>92101</v>
       </c>
       <c r="B441" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C441">
         <v>400</v>
@@ -5289,7 +5289,7 @@
         <v>93101</v>
       </c>
       <c r="B442" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C442">
         <v>300</v>
@@ -5300,7 +5300,7 @@
         <v>93200</v>
       </c>
       <c r="B443" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C443">
         <v>500</v>
@@ -5311,7 +5311,7 @@
         <v>94100</v>
       </c>
       <c r="B444" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C444">
         <v>300</v>
@@ -5322,7 +5322,7 @@
         <v>94103</v>
       </c>
       <c r="B445" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C445">
         <v>300</v>
@@ -5333,7 +5333,7 @@
         <v>94104</v>
       </c>
       <c r="B446" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C446">
         <v>200</v>
@@ -5344,7 +5344,7 @@
         <v>94105</v>
       </c>
       <c r="B447" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C447">
         <v>800</v>
@@ -5355,7 +5355,7 @@
         <v>94106</v>
       </c>
       <c r="B448" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>94107</v>
       </c>
       <c r="B449" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C449">
         <v>3400</v>
@@ -5377,7 +5377,7 @@
         <v>94110</v>
       </c>
       <c r="B450" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C450">
         <v>200</v>
@@ -5388,7 +5388,7 @@
         <v>94111</v>
       </c>
       <c r="B451" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C451">
         <v>200</v>
@@ -5399,7 +5399,7 @@
         <v>94112</v>
       </c>
       <c r="B452" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C452">
         <v>100</v>
@@ -5410,7 +5410,7 @@
         <v>94120</v>
       </c>
       <c r="B453" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C453">
         <v>200</v>
@@ -5421,7 +5421,7 @@
         <v>94121</v>
       </c>
       <c r="B454" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C454">
         <v>300</v>
@@ -5432,7 +5432,7 @@
         <v>94122</v>
       </c>
       <c r="B455" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C455">
         <v>1600</v>
@@ -5443,7 +5443,7 @@
         <v>94123</v>
       </c>
       <c r="B456" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C456">
         <v>700</v>
@@ -5454,7 +5454,7 @@
         <v>94124</v>
       </c>
       <c r="B457" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C457">
         <v>200</v>
@@ -5465,7 +5465,7 @@
         <v>94129</v>
       </c>
       <c r="B458" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C458">
         <v>100</v>
@@ -5476,7 +5476,7 @@
         <v>94130</v>
       </c>
       <c r="B459" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C459">
         <v>200</v>
@@ -5487,7 +5487,7 @@
         <v>94132</v>
       </c>
       <c r="B460" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C460">
         <v>500</v>
@@ -5498,7 +5498,7 @@
         <v>94140</v>
       </c>
       <c r="B461" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C461">
         <v>600</v>
@@ -5509,7 +5509,7 @@
         <v>94141</v>
       </c>
       <c r="B462" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C462">
         <v>600</v>
@@ -5520,7 +5520,7 @@
         <v>94142</v>
       </c>
       <c r="B463" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C463">
         <v>100</v>
@@ -5531,7 +5531,7 @@
         <v>94143</v>
       </c>
       <c r="B464" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C464">
         <v>900</v>
@@ -5542,7 +5542,7 @@
         <v>94150</v>
       </c>
       <c r="B465" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C465">
         <v>400</v>
@@ -5553,7 +5553,7 @@
         <v>94152</v>
       </c>
       <c r="B466" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -5564,7 +5564,7 @@
         <v>94200</v>
       </c>
       <c r="B467" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C467">
         <v>1500</v>
@@ -5575,7 +5575,7 @@
         <v>94201</v>
       </c>
       <c r="B468" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C468">
         <v>700</v>
@@ -5586,7 +5586,7 @@
         <v>94202</v>
       </c>
       <c r="B469" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C469">
         <v>900</v>
@@ -5597,7 +5597,7 @@
         <v>94203</v>
       </c>
       <c r="B470" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C470">
         <v>3200</v>
@@ -5608,7 +5608,7 @@
         <v>94204</v>
       </c>
       <c r="B471" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C471">
         <v>400</v>
@@ -5619,7 +5619,7 @@
         <v>94210</v>
       </c>
       <c r="B472" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C472">
         <v>1500</v>
@@ -5630,7 +5630,7 @@
         <v>94211</v>
       </c>
       <c r="B473" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C473">
         <v>100</v>
@@ -5641,7 +5641,7 @@
         <v>94212</v>
       </c>
       <c r="B474" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>94213</v>
       </c>
       <c r="B475" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C475">
         <v>300</v>
@@ -5663,7 +5663,7 @@
         <v>94219</v>
       </c>
       <c r="B476" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C476">
         <v>200</v>
@@ -5674,7 +5674,7 @@
         <v>95100</v>
       </c>
       <c r="B477" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C477">
         <v>700</v>
@@ -5685,7 +5685,7 @@
         <v>95101</v>
       </c>
       <c r="B478" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>95102</v>
       </c>
       <c r="B479" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -5707,7 +5707,7 @@
         <v>95103</v>
       </c>
       <c r="B480" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -5718,7 +5718,7 @@
         <v>95104</v>
       </c>
       <c r="B481" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C481">
         <v>100</v>
@@ -5729,7 +5729,7 @@
         <v>95105</v>
       </c>
       <c r="B482" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C482">
         <v>900</v>
@@ -5740,7 +5740,7 @@
         <v>95106</v>
       </c>
       <c r="B483" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C483">
         <v>600</v>
@@ -5751,7 +5751,7 @@
         <v>95107</v>
       </c>
       <c r="B484" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>95109</v>
       </c>
       <c r="B485" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C485">
         <v>1300</v>

--- a/future_shortage.xlsx
+++ b/future_shortage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://006gc-my.sharepoint.com/personal/jacob_loree_fin_gc_ca/Documents/Documents/Green Jobs/skill similarity and green shock/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{DDAC2120-99D4-4ED1-A930-A1FEF54FDC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0914EF16-DC65-402E-B5A4-D242E076434B}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{DDAC2120-99D4-4ED1-A930-A1FEF54FDC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F944BEE0-5947-40B1-ADCE-EABA745F0B3B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{372B88F5-C751-4FAE-A413-7AEEAF623F83}"/>
   </bookViews>
